--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2935.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2935.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.963599881826799</v>
+        <v>1.520307302474976</v>
       </c>
       <c r="B1">
-        <v>1.796354095142367</v>
+        <v>1.722111344337463</v>
       </c>
       <c r="C1">
-        <v>7.060543182321377</v>
+        <v>3.754591703414917</v>
       </c>
       <c r="D1">
-        <v>3.242721272201534</v>
+        <v>2.292607545852661</v>
       </c>
       <c r="E1">
-        <v>1.476872922753075</v>
+        <v>0.8262538909912109</v>
       </c>
     </row>
   </sheetData>
